--- a/野火W5500与各开发板引脚连接说明.xlsx
+++ b/野火W5500与各开发板引脚连接说明.xlsx
@@ -45,14 +45,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>四路继电器模块与各开发板引脚连接说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四路继电器模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,6 +131,14 @@
   </si>
   <si>
     <t>GND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W5500模块与各开发板引脚连接说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W5500模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -296,6 +296,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,12 +309,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -615,7 +615,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,22 +627,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
@@ -666,26 +666,26 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -695,14 +695,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -712,14 +712,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -729,14 +729,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -746,65 +746,65 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>20</v>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>12</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
